--- a/input/BallJuggler.xlsx
+++ b/input/BallJuggler.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773DBFF9-8336-4FB8-A60C-A79E4815F3A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F2A968-0F82-47EF-AD40-2B88DF41C523}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="2424" windowWidth="17280" windowHeight="9024" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5268" yWindow="2772" windowWidth="17280" windowHeight="9024" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -620,2449 +620,6 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tl!$A$2:$A$362</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="361"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7453292300000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.4906584700000014E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.2359879000000019E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.9813169500000036E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.726646000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.10471975800000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.12217304850000005</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.13962633900000007</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.15707963700000008</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.17453292010000007</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.19198621800000007</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.20943951600000008</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.2268927991000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.2443460971000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.2617993950000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.27925267810000015</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.29670596120000009</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.31415927410000016</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.33161255710000015</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.34906584020000014</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.36651915310000016</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.3839724361000002</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.40142571920000014</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.41887903210000021</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.43633231520000021</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.4537855982000002</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.47123891110000016</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.48869219420000021</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.50614547720000025</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.52359879010000021</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.54105204340000024</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.5585053563000002</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.57595866910000038</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.59341192240000018</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.61086523530000036</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.62831854820000033</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.64577180140000034</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.6632251143000002</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.68067842720000038</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.69813168040000029</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.71558499330000036</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.73303830620000032</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.75049155950000046</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.76794487230000041</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.78539818520000038</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.8028514385000004</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.82030475130000025</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.83775806420000043</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.85521131750000035</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.87266463040000042</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.89011794320000048</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.9075711965000004</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.92502450940000047</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.94247782230000043</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.95993107550000045</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.97738438840000041</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.9948377013000006</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.0122909545000007</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.0297442674000004</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.0471975803000004</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.0646508932000007</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.0821040868000005</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.0995573997000005</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.1170107126000004</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.1344640254000007</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.1519173383000008</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.1693706512000004</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.1868238449000004</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.2042771577000004</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.2217304706000007</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.2391837835000006</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.2566370964000007</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.2740904092000007</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.2915436029000005</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.3089969158000008</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.3264502286000004</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.3439035415000007</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.3613568544000008</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1.3788101673000006</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1.3962633609000006</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1.4137166738000007</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1.4311699867000007</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1.4486232995000003</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1.4660766124000006</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1.4835298061000006</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1.5009831190000009</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1.518436431800001</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1.5358897447000006</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1.5533430576000007</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1.5707963705000008</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1.5882495641000007</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1.6057028770000008</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1.6231561899000007</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1.6406095027000007</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1.6580628156000008</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1.6755161285000009</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1.6929693222000006</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1.7104226350000007</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1.727875947900001</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1.7453292608000008</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>1.7627825736000009</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>1.7802358865000008</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>1.7976890802000007</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>1.8151423931000008</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>1.8325957059000009</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>1.8500490188000009</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>1.8675023317000008</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>1.8849556446000009</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>1.9024088382000008</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>1.9198621511000009</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>1.9373154640000012</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>1.9547687768000008</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>1.9722220897000009</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>1.9896754026000012</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>2.0071287155000008</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>2.024581909100001</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>2.042035341200001</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>2.0594885349000007</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>2.0769417285000009</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>2.0943951606000009</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>2.1118483543000011</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>2.1293017864000015</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>2.1467549800000012</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>2.1642081737000014</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>2.1816616058000009</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>2.1991147994000011</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>2.216568231500001</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>2.2340214252000008</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>2.251474618900001</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>2.2689280509000009</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>2.2863812446000011</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>2.3038346767000011</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>2.3212878704000013</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>2.3387413024000008</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>2.356194496100001</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>2.3736476898000007</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>2.3911011219000007</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>2.4085543155000009</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>2.4260077476000013</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>2.4434609413000015</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>2.4609141349000012</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>2.4783675670000012</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>2.4958207607000014</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>2.5132741928000013</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>2.5307273864000011</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>2.548180818500001</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>2.5656340122000012</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>2.583087205800001</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>2.6005406379000013</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>2.6179938316000015</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>2.635447263700001</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>2.6529004573000012</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>2.6703536510000014</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>2.6878070831000014</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>2.7052602767000011</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>2.7227137088000015</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>2.7401669025000013</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>2.7576203346000012</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>2.7750735282000014</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>2.7925267219000016</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>2.8099801540000011</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>2.8274333477000013</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>2.8448867797000008</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>2.8623399734000015</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>2.8797931671000008</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>2.8972465991000012</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>2.9146997928000014</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>2.9321532249000017</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>2.9496064186000019</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>2.9670596122000013</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>2.9845130443000016</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>3.0019662380000018</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>3.0194196701000018</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>3.0368728637000015</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>3.0543262958000015</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>3.0717794895000017</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>3.0892326831000014</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>3.1066861152000014</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>3.1241393089000011</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>3.1415927410000015</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>3.1590459346000013</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>3.1764991283000015</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>3.1939525604000014</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>3.2114057540000016</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>3.228859186100002</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>3.2463123798000013</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>3.2637658119000017</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>3.2812190055000019</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>3.2986721992000021</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>3.3161256313000016</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>3.3335788249000018</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>3.3510322570000017</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>3.3684854507000019</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>3.3859386444000013</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>3.4033920764000016</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>3.4208452701000018</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>3.4382987022000013</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>3.4557518959000015</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>3.4732053279000019</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>3.4906585216000017</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>3.5081117153000019</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>3.5255651473000018</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>3.5430183410000016</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>3.560471773100002</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>3.5779249668000022</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>3.5953781604000015</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>3.6128315925000019</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>3.6302847862000016</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>3.6477382183000011</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>3.6651914119000018</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>3.682644605600002</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>3.7000980377000019</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>3.7175512313000021</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>3.7350046634000016</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>3.7524578571000018</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>3.7699112892000017</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>3.7873644828000015</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>3.8048176765000017</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>3.8222711086000016</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>3.8397243022000018</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>3.8571777343000022</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>3.8746309280000024</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>3.8920841217000017</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>3.9095375537000021</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>3.9269907474000023</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>3.9444441795000023</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>3.961897373100002</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>3.9793508052000024</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>3.9968039989000022</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>4.0142574310000017</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>4.0317106246000014</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>4.049163818300002</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>4.0666170120000027</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>4.0840706825000019</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>4.1015238761000017</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>4.1189770698000014</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>4.1364302635000021</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>4.1538834571000018</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>4.1713371276000029</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>4.1887903213000026</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>4.2062435150000015</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>4.2236967086000021</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>4.2411499023000019</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>4.2586035728000029</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>4.2760567665000018</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>4.2935099601000015</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>4.3109631538000022</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>4.3284163475000028</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>4.3458700180000029</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>4.3633232116000018</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>4.3807764053000016</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>4.3982295989000031</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>4.4156827926000028</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>4.4331364631000021</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>4.4505896568000018</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>4.4680428504000016</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>4.4854960441000022</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>4.502949237800002</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>4.520402908300003</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>4.5378561019000028</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>4.5553092956000016</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>4.5727624893000014</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>4.5902161598000015</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>4.6076693534000022</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>4.6251225471000028</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>4.6425757408000026</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>4.6600289344000023</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>4.6774826049000016</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>4.6949357986000031</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>4.712388992300002</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>4.7298421859000017</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>4.7472953796000015</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>4.7647490501000016</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>4.7822022438000014</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>4.7996554374000029</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>4.8171086311000026</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>4.8345618247000024</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>4.8520154953000025</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>4.8694686889000014</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>4.8869218826000029</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>4.9043750762000018</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>4.9218282699000033</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>4.9392819404000017</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>4.9567351341000023</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>4.974188327700003</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>4.9916415214000027</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>5.0090947151000025</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>5.0265483856000026</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>5.0440015792000024</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>5.0614547729000021</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>5.0789079666000019</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>5.0963616371000029</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>5.1138148307000035</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>5.1312680244000024</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>5.148721218100003</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>5.1661744117000028</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>5.1836280822000029</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>5.2010812759000027</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>5.2185344696000024</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>5.2359876632000031</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>5.2534408569000028</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>5.2708945274000021</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>5.2883477210000027</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>5.3058009147000025</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>5.3232541084000022</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>5.3407073020000029</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>5.358160972500003</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>5.3756141662000028</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>5.3930673599000025</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>5.4105205535000023</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>5.427973747200002</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>5.445427417700003</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>5.4628806114000037</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>5.4803338050000026</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>5.4977869987000023</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>5.5152406692000024</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>5.5326938629000031</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>5.5501470565000028</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>5.5676002502000026</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>5.5850534439000024</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>5.6025071144000025</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>5.6199603080000022</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>5.6374135017000038</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>5.6548666954000026</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>5.6723198890000024</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>5.6897735595000025</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>5.7072267532000023</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>5.7246799468000029</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>5.7421331405000018</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>5.7595863342000015</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>5.7770400047000026</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>5.7944931983000023</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>5.811946392000003</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>5.8293995857000027</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>5.8468527793000025</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>5.8643064498000035</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>5.8817596435000032</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>5.8992128372000039</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>5.9166660308000028</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>5.9341192245000025</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>5.9515728950000026</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>5.9690260887000033</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>5.9864792823000039</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>6.0039324760000037</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>6.0213861465000038</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>6.0388393402000036</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>6.0562925338000024</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>6.0737457275000031</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>6.0911989212000028</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>6.108652591700003</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>6.1261057853000036</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>6.1435589790000034</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>6.1610121726000022</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>6.1784653663000038</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>6.195919036800003</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>6.2133722305000028</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>6.2308254241000025</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>6.2482786178000023</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>6.2657318115000029</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>6.283185482000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Tl!$B$2:$B$362</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="361"/>
-                <c:pt idx="0">
-                  <c:v>-5.7589188217999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-3.6208756500999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1.4510452747999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.4496160960000008E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.9652481898000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.2078561857000008E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.4708190513999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.752168378300001E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.2049939687200001E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.4362181143999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.6686953873400003E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.90223453028E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.13664591283E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.37174357753E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.6073440792899999E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.8432676626900001E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.0793380516100002E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.3153826370900003E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.5512329719500003E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.7867243401700001E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.0216965717200001E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.2559931520400003E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.4894622522400007E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.7219557338399998E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.9533300916700003E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5.1834462676199997E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5.4121690220200004E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5.6393670500200006E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5.8649134356500002E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6.0886857914800002E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6.3105648150600005E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6.5304358373399998E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>6.74818851985E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6.9637146312700016E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>7.17691184254E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>7.3876792681400003E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>7.5959212030299997E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>7.8015456674600012E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>8.0044636270000011E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>8.2045883056799995E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>8.4018373628999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>8.5961329401500003E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>8.7873978889599996E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>8.9755602530199999E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>9.16054951959E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>9.3422995996700009E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>9.5207465579799991E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>9.6958300913700002E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>9.867491305340001E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.10035676357810001</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.10200332780370001</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.10361410176850001</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.1051886242349</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.1067264546874</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.10822717973500001</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.10969041369390001</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.11111579078709999</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.11250297946389999</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.113851667731</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.1151615703711</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.11643243615979999</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.11766402516520001</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.11885613133200001</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.1200085817837</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.12112121493559999</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.12219390226530001</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.12322653329470001</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.12421903782520001</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.1251713486854</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.12608344590989998</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.1269553421298</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.1277870373451</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.12857859337239999</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.1293301039259</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.13004163466389998</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.1307133572991</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.13134540017929999</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.13193795259580002</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.13249123448629999</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.133005481388</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.13348097400740003</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.13391799310920002</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.134316863856</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.13467794067400002</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.1350016067008</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.13528827337900001</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.13553837998550003</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.13575237814080002</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.13593079087150001</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.1360741224781</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.13618294728800001</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.136257819453</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.13629936150390001</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.13630820380059999</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.13628502830399999</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.13623050786549998</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.136145349592</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.1360303089604</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.13588614336910002</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.13571362593210001</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.13551355863450001</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.1352867415408</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.13503401551870001</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.13475623086560001</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.13445420132480002</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.1341287919786</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0.13378085766450001</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.13341121259150002</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0.13302070274950001</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0.13261011615400001</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0.1321802566527</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.13173186825579999</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.13126565096900003</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0.13078227592630001</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0.13028232636869999</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0.1297663750593</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0.12923483666960001</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0.12868810631330002</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>0.1281264440622</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0.12755001056939999</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0.12695882120169999</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0.12635280541140001</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0.12573171150869999</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0.1250951378606</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0.1244425291661</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.123773163883</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0.12308611511249999</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0.122380306013</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0.1216544478666</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0.1209070801269</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>0.1201365368907</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0.1193409925326</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>0.11851842491880001</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>0.11766666499900001</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>0.1167833773652</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>0.1158661119407</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>0.11491227871740001</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>0.1139192158589</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>0.1128841802711</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>0.11180439498269999</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>0.11067705624730001</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>0.10949940548749999</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>0.1082686958834</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>0.1069822831777</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>0.1056376203196</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>0.10423228875150001</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>0.10276404613979999</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>0.101230815344</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>9.9630735314400004E-2</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>9.7962169740600014E-2</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>9.6223718341199999E-2</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>9.4414231192799999E-2</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>9.2532810958800005E-2</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>9.0578818344499989E-2</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>8.8551902270399996E-2</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>8.6451943556299995E-2</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>8.4279097150999988E-2</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>8.2033754559300009E-2</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>7.9716552398100007E-2</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>7.7328351442700005E-2</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>7.4870225158500017E-2</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>7.2343454230600013E-2</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>6.9749492569800009E-2</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>6.708998489189999E-2</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>6.4366693841199987E-2</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>6.1581561225500007E-2</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>5.8736615465000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>5.5834019556599994E-2</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>5.28760181042E-2</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>4.9864931264899999E-2</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>4.68031631317E-2</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>4.3693157145700004E-2</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>4.0537410066499996E-2</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>3.7338451831599999E-2</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>3.4098836302300005E-2</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>3.0821141961500004E-2</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>2.7507948631E-2</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>2.4161843000900001E-2</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>2.0785411237800002E-2</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>1.73812290886E-2</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>1.3951864093500002E-2</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>1.04998653405E-2</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>7.0277642225999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>3.5380714688999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>3.3273070599999918E-5</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>-3.484170651E-3</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>-7.0118264993000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>-1.0547288431599999E-2</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>-1.40881828556E-2</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>-1.7632160888800003E-2</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>-2.1176912006899997E-2</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>-2.4720147368499999E-2</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>-2.8259613667600002E-2</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>-3.1793089554400002E-2</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>-3.5318382550000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>-3.8833331811499998E-2</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>-4.2335805046599999E-2</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>-4.5823702981600004E-2</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>-4.92949524887E-2</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>-5.2747510887900001E-2</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>-5.6179362756600001E-2</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>-5.9588527867100005E-2</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>-6.2973039275699999E-2</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>-6.633098098979999E-2</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>-6.9660439956400005E-2</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>-7.2959543569600008E-2</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>-7.6226448902099994E-2</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>-7.9459313186799996E-2</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>-8.26563610753E-2</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>-8.5815803031400004E-2</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>-8.8935902516900006E-2</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>-9.2014931578900006E-2</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>-9.5051193347900007E-2</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>-9.8043007368699989E-2</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>-0.10098873209789999</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>-0.1038867426396</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>-0.1067354310945</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>-0.1095332287951</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>-0.11227857685289999</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>-0.11496994842310002</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>-0.11760583418079999</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>-0.1201847644698</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>-0.12270527242800001</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>-0.12516593115290001</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>-0.12756534642540002</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>-0.12990211194850002</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>-0.13217489901580001</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>-0.13438238191890001</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>-0.13652323806310002</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>-0.1385962074855</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>-0.1406000632851</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>-0.1425335518143</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>-0.14439552696420002</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>-0.14618480094950001</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>-0.1479002785054</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>-0.14954083762129999</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>-0.15110544854540001</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>-0.15259308440719999</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>-0.15400275072889999</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>-0.15533350034099999</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>-0.15658443293069998</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>-0.15775468012720001</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>-0.15884340503550001</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>-0.15984983179079998</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>-0.16077323021090001</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>-0.16161291537540001</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>-0.16236823218060001</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>-0.16303862928179999</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>-0.16362353920700001</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>-0.16412252662119997</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>-0.1645351683256</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>-0.1648611119017</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>-0.16510008959450004</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>-0.16525188740339999</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>-0.16531637357550003</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>-0.1652934825397</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>-0.16518322809130001</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>-0.16498574649449999</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>-0.16470120556179998</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>-0.16432990680910001</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>-0.16387222404589999</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>-0.1633286457508</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>-0.16269975772599998</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>-0.16198627091949999</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>-0.16118898859709999</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>-0.1603088335833</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>-0.15934689017010001</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>-0.1583043264691</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>-0.15718245133749997</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>-0.15598274115479999</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>-0.1547067614738</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>-0.1533562846016</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>-0.15193319506940001</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>-0.1504395185038</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>-0.14887746237219998</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>-0.14724938385190001</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>-0.1455578026362</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>-0.1438053837046</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>-0.14199498062949997</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>-0.14012957550589999</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>-0.13821233762429999</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>-0.13624659320340002</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>-0.1342357997783</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>-0.13218357414009999</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>-0.13009369838980001</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>-0.1279700496234</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>-0.12581667117780002</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>-0.12363769859070001</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>-0.1214373754338</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>-0.11922003375369999</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>-0.116990081966</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>-0.11475197412079999</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>-0.1125102019869</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>-0.11026928853250001</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>-0.1080337152816</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>-0.1058079563082</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>-0.10359641490510001</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>-0.10140340775250001</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>-9.9233126733500016E-2</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>-9.708962636070001E-2</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>-9.4976789783599996E-2</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>-9.2898278031499998E-2</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>-9.0857534669299994E-2</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>-8.8857730850600003E-2</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>-8.6901739239700002E-2</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>-8.4992112359000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>-8.3131075603799995E-2</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>-8.1320458557499989E-2</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>-7.9561734339199996E-2</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>-7.78559497558E-2</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>-7.6203740900300007E-2</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>-7.4605321045999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>-7.3060456779800012E-2</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>-7.156851433679999E-2</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>-7.0128388964800004E-2</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>-6.8738594767600011E-2</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>-6.7397216625999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>-6.6101948497800003E-2</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>-6.4850122085699999E-2</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>-6.3638733467099987E-2</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>-6.246444792490001E-2</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>-6.132366973899999E-2</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>-6.0212548589300002E-2</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>-5.9127030428500003E-2</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>-5.8062885888000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>-5.7015771511899994E-2</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>-5.5981255602000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>-5.4954856168500002E-2</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>-5.3932099137400005E-2</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>-5.2908537909400005E-2</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>-5.1879809238000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>-5.0841653253800002E-2</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>-4.9789949786000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>-4.8720762599299999E-2</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>-4.7630348242800005E-2</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>-4.6515188645600003E-2</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>-4.5372005552000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>-4.4197784271099994E-2</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>-4.2989784386100002E-2</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>-4.1745549067799995E-2</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>-4.04628980905E-2</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>-3.9139961358199998E-2</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>-3.7775139324300003E-2</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>-3.6367138382100005E-2</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>-3.4914935938999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>-3.34177897312E-2</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>-3.1875224784000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>-3.0287015251800005E-2</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>-2.8653178363999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>-2.6973967906100002E-2</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>-2.5249840226100002E-2</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>-2.34814579599E-2</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>-2.1669667679799998E-2</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>-1.9815479405200002E-2</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>-1.7920061247400001E-2</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>-1.5984714031200001E-2</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>-1.4010867103999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>-1.20000520256E-2</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>-9.9538979119999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>-7.8741149046000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>-5.7624813635000008E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2A3A-4B73-AF9C-9EC4BA162F9B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1315070304"/>
-        <c:axId val="1304231248"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1315070304"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1304231248"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1304231248"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1315070304"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
               <c:f>J!$A$2:$A$362</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -5479,563 +3036,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7268,47 +4269,6 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3540C5AD-AAF6-4FEC-A5A2-D68B3F7F8E89}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C9392A8-7537-4BFB-9C7A-33893C140DA2}"/>
             </a:ext>
           </a:extLst>
@@ -9023,7 +5983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B362"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B362"/>
     </sheetView>
   </sheetViews>
@@ -11927,7 +8887,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11961,7 +8920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H362"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B362"/>
     </sheetView>
   </sheetViews>
@@ -14871,6 +11830,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009A9C3C493F16E243A61B30655B57817E" ma:contentTypeVersion="7" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="5498d0bd7cbe5869b7c51394ebf55376">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c5b1fffd-bb2e-4c7d-b7e3-61c2f736de9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cb59bc64eee26ab3aa9436a7e003d12a" ns3:_="">
     <xsd:import namespace="c5b1fffd-bb2e-4c7d-b7e3-61c2f736de9f"/>
@@ -15034,22 +12008,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91C4D690-FD01-4703-B442-2C34C70582BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="c5b1fffd-bb2e-4c7d-b7e3-61c2f736de9f"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F80DA42-2027-4370-85B3-5C9000EF477B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE6C1E4C-B846-4119-951E-BE1B498B563A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15065,28 +12048,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F80DA42-2027-4370-85B3-5C9000EF477B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91C4D690-FD01-4703-B442-2C34C70582BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="c5b1fffd-bb2e-4c7d-b7e3-61c2f736de9f"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>